--- a/tut05/output/0501EE10.xlsx
+++ b/tut05/output/0501EE10.xlsx
@@ -550,28 +550,28 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>7.122448979591836</v>
+        <v>7.12</v>
       </c>
       <c r="C6" t="n">
-        <v>6.636363636363637</v>
+        <v>6.64</v>
       </c>
       <c r="D6" t="n">
-        <v>7.456521739130435</v>
+        <v>7.46</v>
       </c>
       <c r="E6" t="n">
-        <v>7.565217391304348</v>
+        <v>7.57</v>
       </c>
       <c r="F6" t="n">
-        <v>7.461538461538462</v>
+        <v>7.46</v>
       </c>
       <c r="G6" t="n">
-        <v>7.775</v>
+        <v>7.78</v>
       </c>
       <c r="H6" t="n">
-        <v>8.604651162790697</v>
+        <v>8.6</v>
       </c>
       <c r="I6" t="n">
-        <v>8.894736842105264</v>
+        <v>8.890000000000001</v>
       </c>
     </row>
     <row r="7">
@@ -612,28 +612,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>7.122448979591836</v>
+        <v>7.12</v>
       </c>
       <c r="C8" t="n">
-        <v>6.89247311827957</v>
+        <v>6.89</v>
       </c>
       <c r="D8" t="n">
-        <v>7.079136690647482</v>
+        <v>7.08</v>
       </c>
       <c r="E8" t="n">
         <v>7.2</v>
       </c>
       <c r="F8" t="n">
-        <v>7.245535714285714</v>
+        <v>7.25</v>
       </c>
       <c r="G8" t="n">
-        <v>7.325757575757576</v>
+        <v>7.33</v>
       </c>
       <c r="H8" t="n">
-        <v>7.504885993485342</v>
+        <v>7.5</v>
       </c>
       <c r="I8" t="n">
-        <v>7.657971014492754</v>
+        <v>7.66</v>
       </c>
     </row>
   </sheetData>
